--- a/biology/Biologie cellulaire et moléculaire/Βêta-endorphine/Βêta-endorphine.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Βêta-endorphine/Βêta-endorphine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%CE%92%C3%AAta-endorphine</t>
+          <t>Βêta-endorphine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La β-endorphine est un peptide composé de 31 résidus d'acides aminés[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La β-endorphine est un peptide composé de 31 résidus d'acides aminés.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%CE%92%C3%AAta-endorphine</t>
+          <t>Βêta-endorphine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle se trouve sur l'extrémité C-terminale de la POMC (pro-opiomélanocortine)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle se trouve sur l'extrémité C-terminale de la POMC (pro-opiomélanocortine).
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%CE%92%C3%AAta-endorphine</t>
+          <t>Βêta-endorphine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Appartenance</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce peptide appartient au groupe des peptides opioïdes endogènes (voir peptide opioïde) : même action que l'opium ou ses dérivés comme la morphine.
 </t>
